--- a/文档/文档/项目分解表__李智.xlsx
+++ b/文档/文档/项目分解表__李智.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\lizhi\文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Myprojrct\文档\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EECFB16-F14E-4522-9413-54934330584D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB310CE7-BA74-4C1A-94CA-C430C37F4B98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="73">
   <si>
     <t>项目名称</t>
   </si>
@@ -314,6 +314,14 @@
   </si>
   <si>
     <t>1.将配气机构模块添加至项目，配置模型对应的拆解动画、原理动画、各个模型的信息显示、模型抓取设置。2.编写unity editor工具，选中场景中的物体，点击添加脚本则自动给所有子物体添加碰撞相关组件、vruilabel、抓取相关组件、touchtest脚本。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构目录优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.优化mindView的显示，通过优化算法筛选所有有子节点的节点，使其横置显示，其余无子节点的节点竖置显示，以节省黑板的空间，2.解决部分节点横置导致的偏移出现的差错：如果子节点在三个以下，计算时只按照子节点数量计算偏移量，导致横置的节点与相邻的无子节点的节点重叠，所以算法中将子节点只有三个一下的中间添加一个空的节点，这样计算偏移时会按三个来算，就不会重叠了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -708,11 +716,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
+      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1349,6 +1357,9 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="B36" s="4" t="s">
         <v>51</v>
       </c>
@@ -1366,6 +1377,9 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="B37" s="4" t="s">
         <v>51</v>
       </c>
@@ -1383,6 +1397,9 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="B38" s="4" t="s">
         <v>51</v>
       </c>
@@ -1391,6 +1408,9 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="B39" s="4" t="s">
         <v>51</v>
       </c>
@@ -1402,6 +1422,9 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="B40" s="4" t="s">
         <v>51</v>
       </c>
@@ -1419,6 +1442,9 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="B41" s="4" t="s">
         <v>51</v>
       </c>
@@ -1433,6 +1459,26 @@
       </c>
       <c r="F41" s="7" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="6">
+        <v>44018</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/文档/文档/项目分解表__李智.xlsx
+++ b/文档/文档/项目分解表__李智.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Myprojrct\文档\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB310CE7-BA74-4C1A-94CA-C430C37F4B98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9CECB7-5D79-436D-987E-5EE1A0FAA647}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="75">
   <si>
     <t>项目名称</t>
   </si>
@@ -322,6 +322,14 @@
   </si>
   <si>
     <t>1.优化mindView的显示，通过优化算法筛选所有有子节点的节点，使其横置显示，其余无子节点的节点竖置显示，以节省黑板的空间，2.解决部分节点横置导致的偏移出现的差错：如果子节点在三个以下，计算时只按照子节点数量计算偏移量，导致横置的节点与相邻的无子节点的节点重叠，所以算法中将子节点只有三个一下的中间添加一个空的节点，这样计算偏移时会按三个来算，就不会重叠了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善配气机构展示1.将配气机构模型中已有的子模型根据实际结构名字进行命名，并按照结构目录文件对其父子关系进行排列，并调整配气机构配置文件，将此版本没有的结构去掉，使模型高亮可以正常显示。2.添加拆解动画后的交互功能，拆解动画播放完毕之后显示另一个可交互的位置与拆解动画最后一帧动作一样的模型进行交互，可显示手柄触碰的模型名字，可抓取。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -716,11 +724,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
+      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1479,6 +1487,26 @@
       </c>
       <c r="F42" s="7" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" t="s">
+        <v>73</v>
+      </c>
+      <c r="E43" s="6">
+        <v>44019</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/文档/文档/项目分解表__李智.xlsx
+++ b/文档/文档/项目分解表__李智.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Myprojrct\文档\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9CECB7-5D79-436D-987E-5EE1A0FAA647}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A616C04C-933F-42B3-9F20-B1939C00E2D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="77">
   <si>
     <t>项目名称</t>
   </si>
@@ -330,6 +330,14 @@
   </si>
   <si>
     <t>完善配气机构展示1.将配气机构模型中已有的子模型根据实际结构名字进行命名，并按照结构目录文件对其父子关系进行排列，并调整配气机构配置文件，将此版本没有的结构去掉，使模型高亮可以正常显示。2.添加拆解动画后的交互功能，拆解动画播放完毕之后显示另一个可交互的位置与拆解动画最后一帧动作一样的模型进行交互，可显示手柄触碰的模型名字，可抓取。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>润滑系统模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善润滑机构和燃料供给展示1.将润滑系统模型和燃料供给中已有的子模型根据实际结构名字进行命名，并按照结构目录文件对其父子关系进行排列，并调整配置文件，将此版本没有的结构去掉，使模型高亮可以正常显示。2挂载相应的脚本使模型进行交互，可显示手柄触碰的模型名字，可抓取。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -724,11 +732,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
+      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1507,6 +1515,26 @@
       </c>
       <c r="F43" s="7" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="6">
+        <v>44020</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/文档/文档/项目分解表__李智.xlsx
+++ b/文档/文档/项目分解表__李智.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Myprojrct\文档\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A616C04C-933F-42B3-9F20-B1939C00E2D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD9FE75-813A-41CF-B960-CC5122243FB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="79">
   <si>
     <t>项目名称</t>
   </si>
@@ -339,6 +339,16 @@
   <si>
     <t>完善润滑机构和燃料供给展示1.将润滑系统模型和燃料供给中已有的子模型根据实际结构名字进行命名，并按照结构目录文件对其父子关系进行排列，并调整配置文件，将此版本没有的结构去掉，使模型高亮可以正常显示。2挂载相应的脚本使模型进行交互，可显示手柄触碰的模型名字，可抓取。</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃料供给机构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化燃料供给机构和润滑系统展示
+1.解决了部分模型当手柄接触到时提示的名字界面框过小的bug，由于后来导入的模型未调整基础比例，应调为0.1，这样放在该物体下的信息界面大小就正常了
+2.可以从菜单选择学习科目，点击对应的系统或机构，正常进入场景，根据公共变量globaldata中传的fdjsceneName加载对应的引导界面、目录和模型。
+3.调整部分比例不正确或中心点不在中间的模型的信息框，针对这种模型选择直接将预制体放进去并手动调整信息框大小比例和距离。</t>
   </si>
 </sst>
 </file>
@@ -732,11 +742,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1535,6 +1545,23 @@
       </c>
       <c r="F44" s="7" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B45" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="6">
+        <v>44021</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/文档/文档/项目分解表__李智.xlsx
+++ b/文档/文档/项目分解表__李智.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Myprojrct\文档\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD9FE75-813A-41CF-B960-CC5122243FB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B473D9-4D33-4EDD-9DC2-67B008BE0D6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -746,7 +746,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1322,7 +1322,7 @@
         <v>57</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="E32" s="6">
         <v>44005</v>
